--- a/data/trans_dic/P70D_R_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P70D_R_2023-Edad-trans_dic.xlsx
@@ -582,10 +582,10 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.04013343500784083</v>
+        <v>0.04194278021853912</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0181337065013202</v>
+        <v>0.0199111152137134</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.2033883601368055</v>
+        <v>0.2109244740980574</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1042783663319497</v>
+        <v>0.1027975942609955</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.0269948807944749</v>
+        <v>0.02699488079447491</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.03504280356958724</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01058078677824459</v>
+        <v>0.01184528984787851</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01862016636472773</v>
+        <v>0.01773911595620282</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01824376439004973</v>
+        <v>0.01805933492755798</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05793014907915588</v>
+        <v>0.05827051805431941</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06274942641286567</v>
+        <v>0.06392830084417668</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04947585565693631</v>
+        <v>0.05034254611301673</v>
       </c>
     </row>
     <row r="10">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.02795920762599081</v>
+        <v>0.02795920762599082</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.03763835984603094</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01522636671929779</v>
+        <v>0.01620737769606265</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0224526117233665</v>
+        <v>0.02385899634922254</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.023091154591801</v>
+        <v>0.02246547627359369</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.046716118184756</v>
+        <v>0.04615862490011492</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05452733521611098</v>
+        <v>0.055173327551535</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04356834771268055</v>
+        <v>0.04484414108446222</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03252059111914888</v>
+        <v>0.03280888925317765</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04724663563760259</v>
+        <v>0.04617753839759697</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04277817395817717</v>
+        <v>0.04434004297993925</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07378213052595559</v>
+        <v>0.07352167967235841</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08289072029273085</v>
+        <v>0.08263211063570318</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06923367607613501</v>
+        <v>0.07036298917313366</v>
       </c>
     </row>
     <row r="16">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.08565265400707749</v>
+        <v>0.08565265400707746</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.09954608391904683</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06103279438969085</v>
+        <v>0.05913284546964586</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07091777271998878</v>
+        <v>0.07309224233096329</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0711785829341423</v>
+        <v>0.07145867799566011</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1193338715270104</v>
+        <v>0.1205990462092985</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1342237130166381</v>
+        <v>0.1335574949407344</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.115865691552274</v>
+        <v>0.1156527216423062</v>
       </c>
     </row>
     <row r="19">
@@ -838,7 +838,7 @@
         <v>0.0423145061577257</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.0582225973795733</v>
+        <v>0.05822259737957329</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.04929762596082604</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03313889191046826</v>
+        <v>0.03349958850515361</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04881438343421735</v>
+        <v>0.04834811695000268</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04282369908875472</v>
+        <v>0.04285608396308416</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0533326645309885</v>
+        <v>0.05260029591415134</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06993599030348424</v>
+        <v>0.07093186289841805</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05685089968864356</v>
+        <v>0.05828883222682463</v>
       </c>
     </row>
     <row r="22">
@@ -1019,10 +1019,10 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>3682</v>
+        <v>3848</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3564</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="7">
@@ -1034,10 +1034,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>18659</v>
+        <v>19351</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>20497</v>
+        <v>20206</v>
       </c>
     </row>
     <row r="8">
@@ -1086,13 +1086,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4175</v>
+        <v>4674</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5944</v>
+        <v>5662</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13023</v>
+        <v>12891</v>
       </c>
     </row>
     <row r="11">
@@ -1103,13 +1103,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>22860</v>
+        <v>22995</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>20030</v>
+        <v>20406</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>35317</v>
+        <v>35936</v>
       </c>
     </row>
     <row r="12">
@@ -1158,13 +1158,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8214</v>
+        <v>8743</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8927</v>
+        <v>9486</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>21638</v>
+        <v>21051</v>
       </c>
     </row>
     <row r="15">
@@ -1175,13 +1175,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>25201</v>
+        <v>24901</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21680</v>
+        <v>21936</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>40826</v>
+        <v>42021</v>
       </c>
     </row>
     <row r="16">
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>17716</v>
+        <v>17873</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>21518</v>
+        <v>21031</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>42786</v>
+        <v>44349</v>
       </c>
     </row>
     <row r="19">
@@ -1247,13 +1247,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>40193</v>
+        <v>40051</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>37752</v>
+        <v>37634</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>69247</v>
+        <v>70376</v>
       </c>
     </row>
     <row r="20">
@@ -1302,13 +1302,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>20013</v>
+        <v>19390</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>16429</v>
+        <v>16933</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>39829</v>
+        <v>39986</v>
       </c>
     </row>
     <row r="23">
@@ -1319,13 +1319,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>39130</v>
+        <v>39545</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>31095</v>
+        <v>30941</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>64835</v>
+        <v>64716</v>
       </c>
     </row>
     <row r="24">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>63347</v>
+        <v>64036</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>73009</v>
+        <v>72312</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>145909</v>
+        <v>146019</v>
       </c>
     </row>
     <row r="27">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>101948</v>
+        <v>100548</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>104599</v>
+        <v>106089</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>193702</v>
+        <v>198601</v>
       </c>
     </row>
     <row r="28">
